--- a/1/9/2/Commodities, Spread y Bonos 1960 a 2021 - Mensual.xlsx
+++ b/1/9/2/Commodities, Spread y Bonos 1960 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="745">
   <si>
     <t>Serie</t>
   </si>
@@ -2246,6 +2246,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -2603,7 +2606,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E740"/>
+  <dimension ref="A1:E741"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11846,7 +11849,27 @@
       <c r="C740">
         <v>72.5</v>
       </c>
+      <c r="D740">
+        <v>144.2</v>
+      </c>
       <c r="E740">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="741" spans="1:5">
+      <c r="A741" t="s">
+        <v>744</v>
+      </c>
+      <c r="B741">
+        <v>4.2</v>
+      </c>
+      <c r="C741">
+        <v>67.7</v>
+      </c>
+      <c r="D741">
+        <v>138.3</v>
+      </c>
+      <c r="E741">
         <v>1.3</v>
       </c>
     </row>

--- a/1/9/2/Commodities, Spread y Bonos 1960 a 2021 - Mensual.xlsx
+++ b/1/9/2/Commodities, Spread y Bonos 1960 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="746">
   <si>
     <t>Serie</t>
   </si>
@@ -2249,6 +2249,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -2606,7 +2609,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E741"/>
+  <dimension ref="A1:E742"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11873,6 +11876,23 @@
         <v>1.3</v>
       </c>
     </row>
+    <row r="742" spans="1:5">
+      <c r="A742" t="s">
+        <v>745</v>
+      </c>
+      <c r="B742">
+        <v>4.2</v>
+      </c>
+      <c r="C742">
+        <v>71.59999999999999</v>
+      </c>
+      <c r="D742">
+        <v>141.4</v>
+      </c>
+      <c r="E742">
+        <v>1.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/1/9/2/Commodities, Spread y Bonos 1960 a 2021 - Mensual.xlsx
+++ b/1/9/2/Commodities, Spread y Bonos 1960 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="747">
   <si>
     <t>Serie</t>
   </si>
@@ -2252,6 +2252,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -2609,7 +2612,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E742"/>
+  <dimension ref="A1:E743"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11893,6 +11896,23 @@
         <v>1.4</v>
       </c>
     </row>
+    <row r="743" spans="1:5">
+      <c r="A743" t="s">
+        <v>746</v>
+      </c>
+      <c r="B743">
+        <v>4.4</v>
+      </c>
+      <c r="C743">
+        <v>81.3</v>
+      </c>
+      <c r="D743">
+        <v>156.4</v>
+      </c>
+      <c r="E743">
+        <v>1.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
